--- a/kicad/gerber/veloce_BOM_JLCSMT.xlsx
+++ b/kicad/gerber/veloce_BOM_JLCSMT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -33,6 +33,7 @@
   <si>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Source Code Pro Medium"/>
@@ -53,6 +54,7 @@
     </r>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Source Code Pro Medium"/>
@@ -124,10 +126,19 @@
     <t xml:space="preserve">10k</t>
   </si>
   <si>
-    <t xml:space="preserve">R3,R4,R7,R8,R11,R12,R15,R16</t>
+    <t xml:space="preserve">R3,R4,R7,R8,R11,R12,R15,R16,R21,R22,R23,R24,R25,R26,R27,R28,R29</t>
   </si>
   <si>
     <t xml:space="preserve">C38522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17,R18,R19,R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25276</t>
   </si>
 </sst>
 </file>
@@ -173,6 +184,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Source Code Pro Medium"/>
@@ -266,15 +278,15 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="63.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="52.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="38.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="110.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="41.73"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -360,6 +372,20 @@
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
